--- a/medicine/Enfance/Padraic_Colum/Padraic_Colum.xlsx
+++ b/medicine/Enfance/Padraic_Colum/Padraic_Colum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Padraic Colum (8 décembre 1881 - 11 janvier 1972) est un poète, romancier, dramaturge et auteur de contes et de littérature d'enfance et de jeunesse irlandais. Il a été l'une des figures de proue de la renaissance littéraire irlandaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vrai nom de Padraic Colum est Patrick Collumb. Il naît dans la maison de correction où son père travaillait, dans le comté de Longford. Il est l'aîné des huit enfants de Patrick et Susan Collumb. Quand son père perd son emploi en 1889, il part aux États-Unis prendre part à la ruée vers l'or dans le Colorado. Padraic, sa  mère et ses frères et sœurs restent en Irlande. Au retour du père en 1892, la famille déménage à Glsthule, près de Dublin, où son père travaille à la gare de Sandycove et Glasthule. Son fils fréquente l'école publique locale.
 Quand Susan Collumb meurt en 1897, la famille est pour un temps dispersée. Padraic et un de ses frères restent à Dublin, pendant que leur père et le reste des enfants reviennent à Longford. Colum termine l'école l'année suivante et à l'âge de dix-sept ans, passe un examen pour recevoir une place de clerc pour la chambre de compensation du chemin de fer irlandais. Il garde cet emploi jusqu'en 1903.
@@ -551,7 +565,9 @@
           <t>Choix d'œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(1902) The Saxon Shillin' (théâtre)
 (1903) Broken Sail (théâtre)
@@ -561,10 +577,10 @@
 (1910) Thomas Muskerry (théâtre)
 (1916) The King of Ireland's Son ; traduction : Le Fils du roi d'Irlande, Gallimard Folio Junior.
 (1917) Mogu the Wanderer (théâtre)
-(1918) The Children's Homer[1], (roman) Collier Books,  (ISBN 978-0-02-042520-5)
-(1920) The Boy Apprenticed to an Enchanter[2], (Novel) The Macmillan Company
+(1918) The Children's Homer, (roman) Collier Books,  (ISBN 978-0-02-042520-5)
+(1920) The Boy Apprenticed to an Enchanter, (Novel) The Macmillan Company
 (1920) Children of Odin: Nordic Gods and Heroes
-(1921) The Golden Fleece and the Heroes Who Lived Before Achilles[3], (roman), ill. par Willy Pogany The Macmillan company[4]
+(1921) The Golden Fleece and the Heroes Who Lived Before Achilles, (roman), ill. par Willy Pogany The Macmillan company
 (1923) The Six Who Were Left in a Shoe (livre pour enfants)
 (1923) Castle Conquer (roman)
 (1924) The Island of the Mighty: Being the Hero Stories of Celtic Britain Retold from the Mabinogion, ill. par Wilfred Jones, The Macmillan Company
